--- a/biology/Zoologie/Bruant_des_plaines/Bruant_des_plaines.xlsx
+++ b/biology/Zoologie/Bruant_des_plaines/Bruant_des_plaines.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Spizella pallida
 Le Bruant des plaines (Spizella pallida) est une espèce de passereau appartenant à la famille des Passerellidae.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau mesure 12 à 13,5 cm de longueur. L'adulte présente des parties supérieures beiges avec des raies noires sur le dos, un croupion brun ou beige. La tête arbore une raie blanche à son sommet, de larges sourcils et des moustaches blanchâtres, des joues brunes délimitées par de fines lignes noires, des lores pâles et une nuque grise contrastant avec le dos. Le jeune présente un plumage très proche mais avec de fines stries sur la poitrine et des motifs moins nets au niveau de la tête.
 </t>
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est originaire d'Amérique du Nord. Il est erratique d'octobre à février dans le nord des Bahamas et à Cuba.
 </t>
@@ -574,7 +590,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En migration et en hivernage, cet oiseau fréquente les fourrés littoraux, les marais saumâtres et les maquis.
 </t>
